--- a/GoosEnterprise.Model/DBScript/Pladis 2020 - Copy.xlsx
+++ b/GoosEnterprise.Model/DBScript/Pladis 2020 - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project1\GoosEnterprise.Model\DBScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoodsEnterprise1\GoosEnterprise.Model\DBScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737618B-E6F9-40B0-9809-BA1FF1694625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F387D68-708E-4D51-9BD0-C8591C8F7464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="423">
   <si>
     <t>Brand</t>
   </si>
@@ -1265,6 +1265,30 @@
   </si>
   <si>
     <t>Pladis</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>IsDelete</t>
+  </si>
+  <si>
+    <t>See below</t>
+  </si>
+  <si>
+    <t>See below1</t>
+  </si>
+  <si>
+    <t>Expriy Date</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>12-1s2-2012</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1339,6 +1363,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1643,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y324"/>
+  <dimension ref="A1:AD324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L261" workbookViewId="0">
-      <selection activeCell="X286" sqref="X286"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,9 +1695,10 @@
     <col min="20" max="21" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>411</v>
       </c>
@@ -1748,8 +1774,23 @@
       <c r="Y1" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>11172</v>
       </c>
@@ -1825,8 +1866,23 @@
       <c r="Y2" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>13027</v>
       </c>
@@ -1902,8 +1958,11 @@
       <c r="Y3" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>34763</v>
       </c>
@@ -1979,8 +2038,14 @@
       <c r="Y4" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45890</v>
       </c>
@@ -2056,8 +2121,11 @@
       <c r="Y5" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>31423</v>
       </c>
@@ -2133,8 +2201,11 @@
       <c r="Y6" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>35584</v>
       </c>
@@ -2210,8 +2281,11 @@
       <c r="Y7" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>36731</v>
       </c>
@@ -2287,8 +2361,11 @@
       <c r="Y8" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>36733</v>
       </c>
@@ -2364,8 +2441,11 @@
       <c r="Y9" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>40433</v>
       </c>
@@ -2441,8 +2521,11 @@
       <c r="Y10" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>34880</v>
       </c>
@@ -2518,8 +2601,11 @@
       <c r="Y11" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>39442</v>
       </c>
@@ -2595,8 +2681,11 @@
       <c r="Y12" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>39443</v>
       </c>
@@ -2672,8 +2761,11 @@
       <c r="Y13" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10014</v>
       </c>
@@ -2749,8 +2841,11 @@
       <c r="Y14" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10022</v>
       </c>
@@ -2826,8 +2921,11 @@
       <c r="Y15" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>29672</v>
       </c>
@@ -2903,8 +3001,11 @@
       <c r="Y16" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32572</v>
       </c>
@@ -2980,8 +3081,11 @@
       <c r="Y17" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>32564</v>
       </c>
@@ -3057,8 +3161,11 @@
       <c r="Y18" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>37223</v>
       </c>
@@ -3134,8 +3241,11 @@
       <c r="Y19" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37222</v>
       </c>
@@ -3211,8 +3321,11 @@
       <c r="Y20" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40020</v>
       </c>
@@ -3288,8 +3401,11 @@
       <c r="Y21" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>37190</v>
       </c>
@@ -3365,8 +3481,11 @@
       <c r="Y22" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>37191</v>
       </c>
@@ -3442,8 +3561,11 @@
       <c r="Y23" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>37226</v>
       </c>
@@ -3519,8 +3641,11 @@
       <c r="Y24" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>37227</v>
       </c>
@@ -3596,8 +3721,11 @@
       <c r="Y25" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>34563</v>
       </c>
@@ -3673,8 +3801,11 @@
       <c r="Y26" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>34565</v>
       </c>
@@ -3750,8 +3881,11 @@
       <c r="Y27" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>13041</v>
       </c>
@@ -3828,7 +3962,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>40402</v>
       </c>
@@ -3905,7 +4039,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>41020</v>
       </c>
@@ -3982,7 +4116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>40994</v>
       </c>
@@ -4059,7 +4193,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>40991</v>
       </c>
